--- a/Kaggle/Zillow/description/zillow_data_dictionary.xlsx
+++ b/Kaggle/Zillow/description/zillow_data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="20480"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="336">
   <si>
     <t>StoryTypeID</t>
   </si>
@@ -664,180 +664,6 @@
   </si>
   <si>
     <t>Total area</t>
-  </si>
-  <si>
-    <t>'taxdelinquencyyear'</t>
-  </si>
-  <si>
-    <t>'airconditioningtypeid'</t>
-  </si>
-  <si>
-    <t>'architecturalstyletypeid'</t>
-  </si>
-  <si>
-    <t>'basementsqft'</t>
-  </si>
-  <si>
-    <t>'bathroomcnt'</t>
-  </si>
-  <si>
-    <t>'bedroomcnt'</t>
-  </si>
-  <si>
-    <t>'buildingqualitytypeid'</t>
-  </si>
-  <si>
-    <t>'buildingclasstypeid'</t>
-  </si>
-  <si>
-    <t>'calculatedbathnbr'</t>
-  </si>
-  <si>
-    <t>'decktypeid'</t>
-  </si>
-  <si>
-    <t>'threequarterbathnbr'</t>
-  </si>
-  <si>
-    <t>'finishedfloor1squarefeet'</t>
-  </si>
-  <si>
-    <t>'calculatedfinishedsquarefeet'</t>
-  </si>
-  <si>
-    <t>'finishedsquarefeet6'</t>
-  </si>
-  <si>
-    <t>'finishedsquarefeet12'</t>
-  </si>
-  <si>
-    <t>'finishedsquarefeet13'</t>
-  </si>
-  <si>
-    <t>'finishedsquarefeet15'</t>
-  </si>
-  <si>
-    <t>'finishedsquarefeet50'</t>
-  </si>
-  <si>
-    <t>'fips'</t>
-  </si>
-  <si>
-    <t>'fireplacecnt'</t>
-  </si>
-  <si>
-    <t>'fireplaceflag'</t>
-  </si>
-  <si>
-    <t>'fullbathcnt'</t>
-  </si>
-  <si>
-    <t>'garagecarcnt'</t>
-  </si>
-  <si>
-    <t>'garagetotalsqft'</t>
-  </si>
-  <si>
-    <t>'hashottuborspa'</t>
-  </si>
-  <si>
-    <t>'heatingorsystemtypeid'</t>
-  </si>
-  <si>
-    <t>'latitude'</t>
-  </si>
-  <si>
-    <t>'longitude'</t>
-  </si>
-  <si>
-    <t>'lotsizesquarefeet'</t>
-  </si>
-  <si>
-    <t>'numberofstories'</t>
-  </si>
-  <si>
-    <t>'parcelid'</t>
-  </si>
-  <si>
-    <t>'poolcnt'</t>
-  </si>
-  <si>
-    <t>'poolsizesum'</t>
-  </si>
-  <si>
-    <t>'pooltypeid10'</t>
-  </si>
-  <si>
-    <t>'pooltypeid2'</t>
-  </si>
-  <si>
-    <t>'pooltypeid7'</t>
-  </si>
-  <si>
-    <t>'propertycountylandusecode'</t>
-  </si>
-  <si>
-    <t>'propertylandusetypeid'</t>
-  </si>
-  <si>
-    <t>'propertyzoningdesc'</t>
-  </si>
-  <si>
-    <t>'rawcensustractandblock'</t>
-  </si>
-  <si>
-    <t>'censustractandblock'</t>
-  </si>
-  <si>
-    <t>'regionidcounty'</t>
-  </si>
-  <si>
-    <t>'regionidcity'</t>
-  </si>
-  <si>
-    <t>'regionidzip'</t>
-  </si>
-  <si>
-    <t>'regionidneighborhood'</t>
-  </si>
-  <si>
-    <t>'roomcnt'</t>
-  </si>
-  <si>
-    <t>'storytypeid'</t>
-  </si>
-  <si>
-    <t>'typeconstructiontypeid'</t>
-  </si>
-  <si>
-    <t>'unitcnt'</t>
-  </si>
-  <si>
-    <t>'yardbuildingsqft17'</t>
-  </si>
-  <si>
-    <t>'yardbuildingsqft26'</t>
-  </si>
-  <si>
-    <t>'yearbuilt'</t>
-  </si>
-  <si>
-    <t>'taxvaluedollarcnt'</t>
-  </si>
-  <si>
-    <t>'structuretaxvaluedollarcnt'</t>
-  </si>
-  <si>
-    <t>'landtaxvaluedollarcnt'</t>
-  </si>
-  <si>
-    <t>'taxamount'</t>
-  </si>
-  <si>
-    <t>'assessmentyear'</t>
-  </si>
-  <si>
-    <t>'taxdelinquencyflag'</t>
   </si>
   <si>
     <t xml:space="preserve"> Federal Information Processing Standard code -  see https://en.wikipedia.org/wiki/FIPS_county_code for more details</t>
@@ -848,10 +674,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>naratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;int&gt;</t>
   </si>
   <si>
@@ -873,10 +695,6 @@
   </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>corOBJ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -915,6 +733,342 @@
     <rPh sb="3" eb="8">
       <t>フドウサンカカク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_parcel</t>
+  </si>
+  <si>
+    <t>build_year</t>
+  </si>
+  <si>
+    <t>area_basement</t>
+  </si>
+  <si>
+    <t>area_patio</t>
+  </si>
+  <si>
+    <t>area_shed</t>
+  </si>
+  <si>
+    <t>area_pool</t>
+  </si>
+  <si>
+    <t>area_lot</t>
+  </si>
+  <si>
+    <t>area_garage</t>
+  </si>
+  <si>
+    <t>area_firstfloor_finished</t>
+  </si>
+  <si>
+    <t>area_total_calc</t>
+  </si>
+  <si>
+    <t>area_base</t>
+  </si>
+  <si>
+    <t>area_live_finished</t>
+  </si>
+  <si>
+    <t>area_liveperi_finished</t>
+  </si>
+  <si>
+    <t>area_total_finished</t>
+  </si>
+  <si>
+    <t>area_unknown</t>
+  </si>
+  <si>
+    <t>num_unit</t>
+  </si>
+  <si>
+    <t>num_story</t>
+  </si>
+  <si>
+    <t>num_room</t>
+  </si>
+  <si>
+    <t>num_bathroom</t>
+  </si>
+  <si>
+    <t>num_bedroom</t>
+  </si>
+  <si>
+    <t>num_bathroom_calc</t>
+  </si>
+  <si>
+    <t>num_bath</t>
+  </si>
+  <si>
+    <t>num_75_bath</t>
+  </si>
+  <si>
+    <t>num_fireplace</t>
+  </si>
+  <si>
+    <t>num_pool</t>
+  </si>
+  <si>
+    <t>num_garage</t>
+  </si>
+  <si>
+    <t>region_county</t>
+  </si>
+  <si>
+    <t>region_city</t>
+  </si>
+  <si>
+    <t>region_zip</t>
+  </si>
+  <si>
+    <t>region_neighbor</t>
+  </si>
+  <si>
+    <t>tax_total</t>
+  </si>
+  <si>
+    <t>tax_building</t>
+  </si>
+  <si>
+    <t>tax_land</t>
+  </si>
+  <si>
+    <t>tax_property</t>
+  </si>
+  <si>
+    <t>tax_year</t>
+  </si>
+  <si>
+    <t>tax_delinquency</t>
+  </si>
+  <si>
+    <t>tax_delinquency_year</t>
+  </si>
+  <si>
+    <t>zoning_property</t>
+  </si>
+  <si>
+    <t>zoning_landuse</t>
+  </si>
+  <si>
+    <t>zoning_landuse_county</t>
+  </si>
+  <si>
+    <t>flag_fireplace</t>
+  </si>
+  <si>
+    <t>flag_tub</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>framing</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>deck</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>heating</t>
+  </si>
+  <si>
+    <t>aircon</t>
+  </si>
+  <si>
+    <t>architecturalstyletypeid</t>
+  </si>
+  <si>
+    <t>parcelid</t>
+  </si>
+  <si>
+    <t>yearbuilt</t>
+  </si>
+  <si>
+    <t>basementsqft</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft17</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft26</t>
+  </si>
+  <si>
+    <t>poolsizesum</t>
+  </si>
+  <si>
+    <t>lotsizesquarefeet</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet</t>
+  </si>
+  <si>
+    <t>calculatedfinishedsquarefeet</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet6</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet12</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet13</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet50</t>
+  </si>
+  <si>
+    <t>unitcnt</t>
+  </si>
+  <si>
+    <t>numberofstories</t>
+  </si>
+  <si>
+    <t>roomcnt</t>
+  </si>
+  <si>
+    <t>bathroomcnt</t>
+  </si>
+  <si>
+    <t>bedroomcnt</t>
+  </si>
+  <si>
+    <t>calculatedbathnbr</t>
+  </si>
+  <si>
+    <t>fullbathcnt</t>
+  </si>
+  <si>
+    <t>threequarterbathnbr</t>
+  </si>
+  <si>
+    <t>fireplacecnt</t>
+  </si>
+  <si>
+    <t>poolcnt</t>
+  </si>
+  <si>
+    <t>garagecarcnt</t>
+  </si>
+  <si>
+    <t>regionidcounty</t>
+  </si>
+  <si>
+    <t>regionidcity</t>
+  </si>
+  <si>
+    <t>regionidzip</t>
+  </si>
+  <si>
+    <t>regionidneighborhood</t>
+  </si>
+  <si>
+    <t>taxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>structuretaxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>landtaxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>taxamount</t>
+  </si>
+  <si>
+    <t>assessmentyear</t>
+  </si>
+  <si>
+    <t>taxdelinquencyflag</t>
+  </si>
+  <si>
+    <t>taxdelinquencyyear</t>
+  </si>
+  <si>
+    <t>propertyzoningdesc</t>
+  </si>
+  <si>
+    <t>propertylandusetypeid</t>
+  </si>
+  <si>
+    <t>propertycountylandusecode</t>
+  </si>
+  <si>
+    <t>fireplaceflag</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>buildingqualitytypeid</t>
+  </si>
+  <si>
+    <t>buildingclasstypeid</t>
+  </si>
+  <si>
+    <t>typeconstructiontypeid</t>
+  </si>
+  <si>
+    <t>decktypeid</t>
+  </si>
+  <si>
+    <t>storytypeid</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
+    <t>airconditioningtypeid</t>
+  </si>
+  <si>
+    <t>renameFeature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>censustractandblock</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>pooltypeid10</t>
+  </si>
+  <si>
+    <t>pooltypeid2</t>
+  </si>
+  <si>
+    <t>pooltypeid7</t>
+  </si>
+  <si>
+    <t>rawcensustractandblock</t>
+  </si>
+  <si>
+    <t>architectural_style</t>
+  </si>
+  <si>
+    <t>replaceNA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -957,16 +1111,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -991,9 +1180,6 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1008,19 +1194,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:G59" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G59"/>
-  <sortState ref="A2:F59">
-    <sortCondition descending="1" ref="D1:D59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:H60" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:H60"/>
+  <sortState ref="A2:G59">
+    <sortCondition ref="A1:A59"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Feature" dataDxfId="6"/>
-    <tableColumn id="2" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" name="type" dataDxfId="4"/>
-    <tableColumn id="4" name="naratio" dataDxfId="3"/>
-    <tableColumn id="8" name="corOBJ" dataDxfId="2"/>
-    <tableColumn id="9" name="omit" dataDxfId="1"/>
-    <tableColumn id="6" name="note" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Feature" dataDxfId="9" totalsRowDxfId="7"/>
+    <tableColumn id="7" name="renameFeature" dataDxfId="8" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Description" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="type" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="NAratio" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="replaceNA" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="9" name="omit" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="note" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1289,954 +1476,1137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.1640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="41.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E42" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="1">
         <v>0.999</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G48" s="1">
         <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>281</v>
-      </c>
-      <c r="K4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.998</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.61299999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="1">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="1">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="54" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>190</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>202</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>203</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>274</v>
+        <v>122</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Kaggle/Zillow/description/zillow_data_dictionary.xlsx
+++ b/Kaggle/Zillow/description/zillow_data_dictionary.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="338">
   <si>
     <t>StoryTypeID</t>
   </si>
@@ -1069,6 +1069,14 @@
   </si>
   <si>
     <t>replaceNA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>convertedType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>factor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1123,7 +1131,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1144,6 +1155,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1194,20 +1208,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:H60" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:H60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:I60" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:I60"/>
   <sortState ref="A2:G59">
     <sortCondition ref="A1:A59"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Feature" dataDxfId="9" totalsRowDxfId="7"/>
-    <tableColumn id="7" name="renameFeature" dataDxfId="8" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Description" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="type" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="NAratio" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="replaceNA" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="9" name="omit" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="6" name="note" dataDxfId="10" totalsRowDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Feature" dataDxfId="11" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="renameFeature" dataDxfId="10" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Description" dataDxfId="17" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="type" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="convertedType" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="NAratio" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="replaceNA" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="9" name="omit" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="note" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,25 +1491,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="41.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="29.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -1508,22 +1522,25 @@
         <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -1536,17 +1553,20 @@
       <c r="D2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.72799999999999998</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>275</v>
       </c>
@@ -1559,17 +1579,20 @@
       <c r="D3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.998</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>310</v>
       </c>
@@ -1582,17 +1605,17 @@
       <c r="D4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>221</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>278</v>
       </c>
@@ -1605,17 +1628,17 @@
       <c r="D5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>294</v>
       </c>
@@ -1628,14 +1651,14 @@
       <c r="D6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>295</v>
       </c>
@@ -1648,11 +1671,11 @@
       <c r="D7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>319</v>
       </c>
@@ -1665,14 +1688,17 @@
       <c r="D8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.996</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>318</v>
       </c>
@@ -1685,11 +1711,11 @@
       <c r="D9" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>296</v>
       </c>
@@ -1702,11 +1728,11 @@
       <c r="D10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>285</v>
       </c>
@@ -1719,11 +1745,11 @@
       <c r="D11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>326</v>
       </c>
@@ -1736,11 +1762,14 @@
       <c r="D12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>321</v>
       </c>
@@ -1753,14 +1782,17 @@
       <c r="D13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>284</v>
       </c>
@@ -1773,14 +1805,14 @@
       <c r="D14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>287</v>
       </c>
@@ -1793,11 +1825,11 @@
       <c r="D15" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>288</v>
       </c>
@@ -1810,14 +1842,14 @@
       <c r="D16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0.997</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>289</v>
       </c>
@@ -1830,14 +1862,14 @@
       <c r="D17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>290</v>
       </c>
@@ -1850,14 +1882,14 @@
       <c r="D18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>286</v>
       </c>
@@ -1870,14 +1902,14 @@
       <c r="D19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>327</v>
       </c>
@@ -1890,11 +1922,14 @@
       <c r="D20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>299</v>
       </c>
@@ -1907,14 +1942,14 @@
       <c r="D21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>316</v>
       </c>
@@ -1927,11 +1962,11 @@
       <c r="D22" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>297</v>
       </c>
@@ -1944,11 +1979,11 @@
       <c r="D23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>301</v>
       </c>
@@ -1961,14 +1996,14 @@
       <c r="D24" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>283</v>
       </c>
@@ -1981,14 +2016,14 @@
       <c r="D25" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>317</v>
       </c>
@@ -2001,11 +2036,11 @@
       <c r="D26" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>323</v>
       </c>
@@ -2018,11 +2053,14 @@
       <c r="D27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>308</v>
       </c>
@@ -2035,11 +2073,11 @@
       <c r="D28" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>328</v>
       </c>
@@ -2052,11 +2090,11 @@
       <c r="D29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>329</v>
       </c>
@@ -2069,11 +2107,11 @@
       <c r="D30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>282</v>
       </c>
@@ -2086,11 +2124,11 @@
       <c r="D31" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>292</v>
       </c>
@@ -2103,14 +2141,14 @@
       <c r="D32" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>276</v>
       </c>
@@ -2123,14 +2161,14 @@
       <c r="D33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>300</v>
       </c>
@@ -2143,14 +2181,14 @@
       <c r="D34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>0.82699999999999996</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>281</v>
       </c>
@@ -2163,14 +2201,14 @@
       <c r="D35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>330</v>
       </c>
@@ -2183,14 +2221,14 @@
       <c r="D36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>331</v>
       </c>
@@ -2203,14 +2241,14 @@
       <c r="D37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>0.98899999999999999</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>332</v>
       </c>
@@ -2223,14 +2261,14 @@
       <c r="D38" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>0.83699999999999997</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>315</v>
       </c>
@@ -2243,11 +2281,11 @@
       <c r="D39" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>314</v>
       </c>
@@ -2260,11 +2298,11 @@
       <c r="D40" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>313</v>
       </c>
@@ -2277,11 +2315,11 @@
       <c r="D41" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>333</v>
       </c>
@@ -2294,11 +2332,11 @@
       <c r="D42" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>303</v>
       </c>
@@ -2311,11 +2349,14 @@
       <c r="D43" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F43" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>302</v>
       </c>
@@ -2328,11 +2369,14 @@
       <c r="D44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F44" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>305</v>
       </c>
@@ -2345,11 +2389,14 @@
       <c r="D45" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F45" s="1">
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>304</v>
       </c>
@@ -2362,11 +2409,14 @@
       <c r="D46" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>293</v>
       </c>
@@ -2379,11 +2429,11 @@
       <c r="D47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>322</v>
       </c>
@@ -2396,14 +2446,17 @@
       <c r="D48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F48" s="1">
         <v>0.999</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>307</v>
       </c>
@@ -2416,11 +2469,11 @@
       <c r="D49" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>309</v>
       </c>
@@ -2433,11 +2486,11 @@
       <c r="D50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>311</v>
       </c>
@@ -2450,11 +2503,11 @@
       <c r="D51" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>312</v>
       </c>
@@ -2467,14 +2520,14 @@
       <c r="D52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>306</v>
       </c>
@@ -2487,11 +2540,11 @@
       <c r="D53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>298</v>
       </c>
@@ -2504,14 +2557,14 @@
       <c r="D54" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>320</v>
       </c>
@@ -2524,14 +2577,17 @@
       <c r="D55" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F55" s="1">
         <v>0.998</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>291</v>
       </c>
@@ -2544,11 +2600,11 @@
       <c r="D56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>279</v>
       </c>
@@ -2561,14 +2617,14 @@
       <c r="D57" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>0.97299999999999998</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>280</v>
       </c>
@@ -2581,14 +2637,14 @@
       <c r="D58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>0.999</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>277</v>
       </c>
@@ -2601,11 +2657,11 @@
       <c r="D59" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
     </row>
   </sheetData>
@@ -3075,7 +3131,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
